--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/42/word_level_predictions_42.xlsx
@@ -2946,106 +2946,106 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4501,109 +4501,109 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Taking</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -6777,11 +6777,11 @@
         </is>
       </c>
       <c r="I122" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K122" s="2" t="b">
@@ -6829,11 +6829,11 @@
         </is>
       </c>
       <c r="I123" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K123" s="2" t="b">
@@ -6881,11 +6881,11 @@
         </is>
       </c>
       <c r="I124" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K124" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         </is>
       </c>
       <c r="I138" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K138" s="2" t="b">
@@ -7661,11 +7661,11 @@
         </is>
       </c>
       <c r="I139" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K139" s="2" t="b">
@@ -7713,11 +7713,11 @@
         </is>
       </c>
       <c r="I140" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K140" s="2" t="b">
@@ -7765,11 +7765,11 @@
         </is>
       </c>
       <c r="I141" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K141" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7869,11 +7869,11 @@
         </is>
       </c>
       <c r="I143" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K143" s="2" t="b">
@@ -7921,11 +7921,11 @@
         </is>
       </c>
       <c r="I144" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K144" s="2" t="b">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G145" s="2" t="b">
@@ -7973,11 +7973,11 @@
         </is>
       </c>
       <c r="I145" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K145" s="2" t="b">
@@ -9446,678 +9446,678 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11006,260 +11006,260 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F206" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B208" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/42/word_level_predictions_42.xlsx
@@ -2946,106 +2946,106 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Correcting Landing Position .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="D50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4477,133 +4477,133 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Taking</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>Taking</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -6777,11 +6777,11 @@
         </is>
       </c>
       <c r="I122" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K122" s="2" t="b">
@@ -6829,11 +6829,11 @@
         </is>
       </c>
       <c r="I123" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K123" s="2" t="b">
@@ -6881,11 +6881,11 @@
         </is>
       </c>
       <c r="I124" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K124" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         </is>
       </c>
       <c r="I138" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K138" s="2" t="b">
@@ -7661,11 +7661,11 @@
         </is>
       </c>
       <c r="I139" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K139" s="2" t="b">
@@ -7713,11 +7713,11 @@
         </is>
       </c>
       <c r="I140" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K140" s="2" t="b">
@@ -7765,11 +7765,11 @@
         </is>
       </c>
       <c r="I141" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K141" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7869,11 +7869,11 @@
         </is>
       </c>
       <c r="I143" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K143" s="2" t="b">
@@ -7921,11 +7921,11 @@
         </is>
       </c>
       <c r="I144" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K144" s="2" t="b">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G145" s="2" t="b">
@@ -7973,11 +7973,11 @@
         </is>
       </c>
       <c r="I145" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K145" s="2" t="b">
@@ -9446,678 +9446,678 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11006,260 +11006,260 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>7</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" t="n">
         <v>9</v>
       </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
